--- a/RTX.xlsx
+++ b/RTX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11000C4-960B-4B5B-AD8E-554C9C446606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB219D61-BC5B-46A1-AAC4-73402138A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{8E1B7C99-8DB6-4E57-9009-B9B2BBD70AA9}"/>
+    <workbookView xWindow="4815" yWindow="285" windowWidth="23340" windowHeight="14895" activeTab="1" xr2:uid="{8E1B7C99-8DB6-4E57-9009-B9B2BBD70AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:DK48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
@@ -920,24 +920,24 @@
         <v>59612</v>
       </c>
       <c r="I11" s="2">
-        <f>H11*1.15</f>
-        <v>68553.799999999988</v>
+        <f>H11*1.05</f>
+        <v>62592.600000000006</v>
       </c>
       <c r="J11" s="2">
-        <f>I11*1.1</f>
-        <v>75409.179999999993</v>
+        <f t="shared" ref="J11:M11" si="1">I11*1.05</f>
+        <v>65722.23000000001</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:M11" si="1">J11*1.1</f>
-        <v>82950.097999999998</v>
+        <f t="shared" si="1"/>
+        <v>69008.34150000001</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>91245.107800000013</v>
+        <v>72458.758575000014</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>100369.61858000002</v>
+        <v>76081.696503750019</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -954,24 +954,24 @@
         <v>21126</v>
       </c>
       <c r="I12" s="2">
-        <f>H12*1.12</f>
-        <v>23661.120000000003</v>
+        <f>H12*1.1</f>
+        <v>23238.600000000002</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:M12" si="2">I12*1.12</f>
-        <v>26500.454400000006</v>
+        <f t="shared" ref="J12:M12" si="2">I12*1.1</f>
+        <v>25562.460000000003</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="2"/>
-        <v>29680.50892800001</v>
+        <v>28118.706000000006</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>33242.169999360012</v>
+        <v>30930.576600000008</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
-        <v>37231.230399283217</v>
+        <v>34023.634260000013</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -993,23 +993,23 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" ref="I13" si="4">SUM(I11:I12)</f>
-        <v>92214.919999999984</v>
+        <v>85831.200000000012</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ref="J13" si="5">SUM(J11:J12)</f>
-        <v>101909.6344</v>
+        <v>91284.690000000017</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" ref="K13" si="6">SUM(K11:K12)</f>
-        <v>112630.60692800001</v>
+        <v>97127.047500000015</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" ref="L13" si="7">SUM(L11:L12)</f>
-        <v>124487.27779936002</v>
+        <v>103389.33517500001</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13" si="8">SUM(M11:M12)</f>
-        <v>137600.84897928324</v>
+        <v>110105.33076375004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1027,23 +1027,23 @@
       </c>
       <c r="I14" s="2">
         <f>I11*(1-I38)</f>
-        <v>58179.787999999986</v>
+        <v>53120.676000000007</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ref="J14:M14" si="9">J11*(1-J38)</f>
-        <v>63769.538535999993</v>
+        <v>55577.799396000009</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="9"/>
-        <v>69890.420277391997</v>
+        <v>58143.656323116011</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="9"/>
-        <v>76592.149395233835</v>
+        <v>60822.680750557243</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="9"/>
-        <v>83928.999249852364</v>
+        <v>63619.457153771815</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1061,23 +1061,23 @@
       </c>
       <c r="I15" s="2">
         <f>I12*(1-I39)</f>
-        <v>16160.121600000002</v>
+        <v>15871.548000000003</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ref="J15:M15" si="10">J12*(1-J39)</f>
-        <v>17931.313827840004</v>
+        <v>17296.627656000001</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="10"/>
-        <v>19891.122738364422</v>
+        <v>18844.442110032003</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="10"/>
-        <v>22058.775216320311</v>
+        <v>20524.852515455903</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="10"/>
-        <v>24455.32019913866</v>
+        <v>22348.411837141528</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1098,23 +1098,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="11"/>
-        <v>17875.010399999999</v>
+        <v>16838.975999999995</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="11"/>
-        <v>20208.782036160002</v>
+        <v>18410.262948000003</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="11"/>
-        <v>22849.063912243597</v>
+        <v>20138.949066852001</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="11"/>
-        <v>25836.353187805871</v>
+        <v>22041.801908986876</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="11"/>
-        <v>29216.529530292217</v>
+        <v>24137.461772836701</v>
       </c>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.2">
@@ -1163,23 +1163,23 @@
       </c>
       <c r="I19" s="2">
         <f>I13*I36</f>
-        <v>9882.5685153459326</v>
+        <v>9198.4324744234455</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ref="J19:M19" si="13">J13*J36</f>
-        <v>10812.324674668009</v>
+        <v>9685.0480518103031</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="13"/>
-        <v>11830.29171485619</v>
+        <v>10201.856641527533</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="13"/>
-        <v>12944.914733303851</v>
+        <v>10751.02734859729</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="13"/>
-        <v>14165.455104067165</v>
+        <v>11334.901864502222</v>
       </c>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.2">
@@ -1200,23 +1200,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="14"/>
-        <v>7992.4418846540666</v>
+        <v>7640.5435255765497</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="14"/>
-        <v>9396.4573614919937</v>
+        <v>8725.2148961897001</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="14"/>
-        <v>11018.772197387407</v>
+        <v>9937.0924253244684</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="14"/>
-        <v>12891.43845450202</v>
+        <v>11290.774560389586</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="14"/>
-        <v>15051.074426225052</v>
+        <v>12802.559908334479</v>
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,23 @@
       </c>
       <c r="I21" s="2">
         <f>H21*(1+I29)</f>
-        <v>1733.7839500606899</v>
+        <v>1613.7600832321834</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ref="J21:M21" si="15">I21*(1+J29)</f>
+        <v>1716.2941789491942</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="15"/>
+        <v>1826.1395886075954</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="15"/>
+        <v>1943.880338820011</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="15"/>
+        <v>2070.1515036212513</v>
       </c>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.2">
@@ -1255,20 +1271,20 @@
         <v>-2624.3399999999997</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22:M22" si="15">I41*$P$27</f>
-        <v>-2253.6215594278897</v>
+        <f t="shared" ref="J22:M22" si="16">I41*$P$27</f>
+        <v>-2278.2558996201838</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="15"/>
-        <v>-1880.7655305601434</v>
+        <f t="shared" si="16"/>
+        <v>-1852.134083858107</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="15"/>
-        <v>-1403.7615825517605</v>
+        <f t="shared" si="16"/>
+        <v>-1334.7747719082465</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="15"/>
-        <v>-804.10484983595688</v>
+        <f t="shared" si="16"/>
+        <v>-713.60102926311617</v>
       </c>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.2">
@@ -1280,32 +1296,32 @@
         <v>5997</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" ref="G23:H23" si="16">SUM(G20:G22)</f>
+        <f t="shared" ref="G23:H23" si="17">SUM(G20:G22)</f>
         <v>3750</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6326</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" ref="I23" si="17">SUM(I20:I22)</f>
-        <v>7101.8858347147561</v>
+        <f t="shared" ref="I23" si="18">SUM(I20:I22)</f>
+        <v>6629.9636088087336</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" ref="J23" si="18">SUM(J20:J22)</f>
-        <v>7142.8358020641044</v>
+        <f t="shared" ref="J23" si="19">SUM(J20:J22)</f>
+        <v>8163.2531755187101</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23" si="19">SUM(K20:K22)</f>
-        <v>9138.006666827263</v>
+        <f t="shared" ref="K23" si="20">SUM(K20:K22)</f>
+        <v>9911.0979300739564</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23" si="20">SUM(L20:L22)</f>
-        <v>11487.67687195026</v>
+        <f t="shared" ref="L23" si="21">SUM(L20:L22)</f>
+        <v>11899.880127301349</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23" si="21">SUM(M20:M22)</f>
-        <v>14246.969576389096</v>
+        <f t="shared" ref="M23" si="22">SUM(M20:M22)</f>
+        <v>14159.110382692614</v>
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.2">
@@ -1323,23 +1339,23 @@
       </c>
       <c r="I24" s="2">
         <f>I23*I30</f>
-        <v>923.24515851291835</v>
+        <v>861.89526914513544</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" ref="J24:M24" si="22">J23*J30</f>
-        <v>928.5686542683336</v>
+        <f t="shared" ref="J24:M24" si="23">J23*J30</f>
+        <v>1061.2229128174324</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="22"/>
-        <v>1187.9408666875443</v>
+        <f t="shared" si="23"/>
+        <v>1288.4427309096143</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="22"/>
-        <v>1493.3979933535338</v>
+        <f t="shared" si="23"/>
+        <v>1546.9844165491754</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="22"/>
-        <v>1852.1060449305826</v>
+        <f t="shared" si="23"/>
+        <v>1840.6843497500399</v>
       </c>
     </row>
     <row r="25" spans="1:109" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1352,416 +1368,416 @@
         <v>5207</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ref="G25:M25" si="23">G23-G24</f>
+        <f t="shared" ref="G25:M25" si="24">G23-G24</f>
         <v>3294</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5145</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="23"/>
-        <v>6178.6406762018378</v>
+        <f t="shared" si="24"/>
+        <v>5768.0683396635977</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="23"/>
-        <v>6214.2671477957711</v>
+        <f t="shared" si="24"/>
+        <v>7102.0302627012779</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="23"/>
-        <v>7950.0658001397187</v>
+        <f t="shared" si="24"/>
+        <v>8622.6551991643428</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="23"/>
-        <v>9994.2788785967259</v>
+        <f t="shared" si="24"/>
+        <v>10352.895710752173</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="23"/>
-        <v>12394.863531458514</v>
+        <f t="shared" si="24"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="N25" s="4">
         <f>M25*(1+$P$28)</f>
-        <v>12766.709437402269</v>
+        <v>12318.426032942574</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" ref="O25:BZ25" si="24">N25*(1+$P$28)</f>
-        <v>13149.710720524337</v>
+        <f t="shared" ref="O25:BZ25" si="25">N25*(1+$P$28)</f>
+        <v>12318.426032942574</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="24"/>
-        <v>13544.202042140068</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="24"/>
-        <v>13950.528103404271</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="24"/>
-        <v>14369.043946506399</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="24"/>
-        <v>14800.115264901591</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="24"/>
-        <v>15244.11872284864</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="24"/>
-        <v>15701.4422845341</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="24"/>
-        <v>16172.485553070122</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="24"/>
-        <v>16657.660119662225</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="24"/>
-        <v>17157.389923252093</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="24"/>
-        <v>17672.111620949654</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="24"/>
-        <v>18202.274969578146</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AA25" s="4">
-        <f t="shared" si="24"/>
-        <v>18748.34321866549</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AB25" s="4">
-        <f t="shared" si="24"/>
-        <v>19310.793515225454</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AC25" s="4">
-        <f t="shared" si="24"/>
-        <v>19890.117320682217</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="24"/>
-        <v>20486.820840302684</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="24"/>
-        <v>21101.425465511766</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AF25" s="4">
-        <f t="shared" si="24"/>
-        <v>21734.468229477119</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="24"/>
-        <v>22386.502276361432</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AH25" s="4">
-        <f t="shared" si="24"/>
-        <v>23058.097344652277</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AI25" s="4">
-        <f t="shared" si="24"/>
-        <v>23749.840264991846</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AJ25" s="4">
-        <f t="shared" si="24"/>
-        <v>24462.335472941602</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AK25" s="4">
-        <f t="shared" si="24"/>
-        <v>25196.205537129852</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AL25" s="4">
-        <f t="shared" si="24"/>
-        <v>25952.091703243746</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AM25" s="4">
-        <f t="shared" si="24"/>
-        <v>26730.65445434106</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AN25" s="4">
-        <f t="shared" si="24"/>
-        <v>27532.574087971294</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AO25" s="4">
-        <f t="shared" si="24"/>
-        <v>28358.551310610434</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AP25" s="4">
-        <f t="shared" si="24"/>
-        <v>29209.307849928748</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AQ25" s="4">
-        <f t="shared" si="24"/>
-        <v>30085.58708542661</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AR25" s="4">
-        <f t="shared" si="24"/>
-        <v>30988.154697989408</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="24"/>
-        <v>31917.79933892909</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AT25" s="4">
-        <f t="shared" si="24"/>
-        <v>32875.333319096964</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AU25" s="4">
-        <f t="shared" si="24"/>
-        <v>33861.593318669875</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" si="24"/>
-        <v>34877.441118229974</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AW25" s="4">
-        <f t="shared" si="24"/>
-        <v>35923.764351776874</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AX25" s="4">
-        <f t="shared" si="24"/>
-        <v>37001.477282330183</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AY25" s="4">
-        <f t="shared" si="24"/>
-        <v>38111.521600800086</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="AZ25" s="4">
-        <f t="shared" si="24"/>
-        <v>39254.867248824092</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BA25" s="4">
-        <f t="shared" si="24"/>
-        <v>40432.513266288814</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BB25" s="4">
-        <f t="shared" si="24"/>
-        <v>41645.48866427748</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BC25" s="4">
-        <f t="shared" si="24"/>
-        <v>42894.853324205804</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="24"/>
-        <v>44181.698923931981</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BE25" s="4">
-        <f t="shared" si="24"/>
-        <v>45507.14989164994</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BF25" s="4">
-        <f t="shared" si="24"/>
-        <v>46872.364388399437</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BG25" s="4">
-        <f t="shared" si="24"/>
-        <v>48278.535320051422</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BH25" s="4">
-        <f t="shared" si="24"/>
-        <v>49726.891379652967</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BI25" s="4">
-        <f t="shared" si="24"/>
-        <v>51218.698121042558</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BJ25" s="4">
-        <f t="shared" si="24"/>
-        <v>52755.259064673839</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BK25" s="4">
-        <f t="shared" si="24"/>
-        <v>54337.916836614058</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BL25" s="4">
-        <f t="shared" si="24"/>
-        <v>55968.054341712479</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BM25" s="4">
-        <f t="shared" si="24"/>
-        <v>57647.095971963856</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BN25" s="4">
-        <f t="shared" si="24"/>
-        <v>59376.508851122773</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BO25" s="4">
-        <f t="shared" si="24"/>
-        <v>61157.804116656458</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BP25" s="4">
-        <f t="shared" si="24"/>
-        <v>62992.538240156151</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BQ25" s="4">
-        <f t="shared" si="24"/>
-        <v>64882.314387360835</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BR25" s="4">
-        <f t="shared" si="24"/>
-        <v>66828.783818981668</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BS25" s="4">
-        <f t="shared" si="24"/>
-        <v>68833.647333551125</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BT25" s="4">
-        <f t="shared" si="24"/>
-        <v>70898.656753557661</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BU25" s="4">
-        <f t="shared" si="24"/>
-        <v>73025.616456164396</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BV25" s="4">
-        <f t="shared" si="24"/>
-        <v>75216.384949849336</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BW25" s="4">
-        <f t="shared" si="24"/>
-        <v>77472.87649834482</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BX25" s="4">
-        <f t="shared" si="24"/>
-        <v>79797.062793295161</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BY25" s="4">
-        <f t="shared" si="24"/>
-        <v>82190.974677094011</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="BZ25" s="4">
-        <f t="shared" si="24"/>
-        <v>84656.703917406834</v>
+        <f t="shared" si="25"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CA25" s="4">
-        <f t="shared" ref="CA25:DE25" si="25">BZ25*(1+$P$28)</f>
-        <v>87196.405034929048</v>
+        <f t="shared" ref="CA25:DE25" si="26">BZ25*(1+$P$28)</f>
+        <v>12318.426032942574</v>
       </c>
       <c r="CB25" s="4">
-        <f t="shared" si="25"/>
-        <v>89812.297185976917</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CC25" s="4">
-        <f t="shared" si="25"/>
-        <v>92506.666101556228</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CD25" s="4">
-        <f t="shared" si="25"/>
-        <v>95281.866084602923</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CE25" s="4">
-        <f t="shared" si="25"/>
-        <v>98140.322067141009</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CF25" s="4">
-        <f t="shared" si="25"/>
-        <v>101084.53172915523</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CG25" s="4">
-        <f t="shared" si="25"/>
-        <v>104117.06768102989</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CH25" s="4">
-        <f t="shared" si="25"/>
-        <v>107240.57971146078</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CI25" s="4">
-        <f t="shared" si="25"/>
-        <v>110457.79710280462</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CJ25" s="4">
-        <f t="shared" si="25"/>
-        <v>113771.53101588876</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CK25" s="4">
-        <f t="shared" si="25"/>
-        <v>117184.67694636542</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CL25" s="4">
-        <f t="shared" si="25"/>
-        <v>120700.21725475638</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CM25" s="4">
-        <f t="shared" si="25"/>
-        <v>124321.22377239908</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CN25" s="4">
-        <f t="shared" si="25"/>
-        <v>128050.86048557106</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CO25" s="4">
-        <f t="shared" si="25"/>
-        <v>131892.3863001382</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CP25" s="4">
-        <f t="shared" si="25"/>
-        <v>135849.15788914234</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CQ25" s="4">
-        <f t="shared" si="25"/>
-        <v>139924.63262581662</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CR25" s="4">
-        <f t="shared" si="25"/>
-        <v>144122.37160459111</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CS25" s="4">
-        <f t="shared" si="25"/>
-        <v>148446.04275272886</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CT25" s="4">
-        <f t="shared" si="25"/>
-        <v>152899.42403531072</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CU25" s="4">
-        <f t="shared" si="25"/>
-        <v>157486.40675637004</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CV25" s="4">
-        <f t="shared" si="25"/>
-        <v>162210.99895906114</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CW25" s="4">
-        <f t="shared" si="25"/>
-        <v>167077.32892783298</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CX25" s="4">
-        <f t="shared" si="25"/>
-        <v>172089.64879566798</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CY25" s="4">
-        <f t="shared" si="25"/>
-        <v>177252.33825953802</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="CZ25" s="4">
-        <f t="shared" si="25"/>
-        <v>182569.90840732417</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="DA25" s="4">
-        <f t="shared" si="25"/>
-        <v>188047.00565954391</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="DB25" s="4">
-        <f t="shared" si="25"/>
-        <v>193688.41582933022</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="DC25" s="4">
-        <f t="shared" si="25"/>
-        <v>199499.06830421012</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="DD25" s="4">
-        <f t="shared" si="25"/>
-        <v>205484.04035333643</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
       <c r="DE25" s="4">
-        <f t="shared" si="25"/>
-        <v>211648.56156393653</v>
+        <f t="shared" si="26"/>
+        <v>12318.426032942574</v>
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.2">
@@ -1773,32 +1789,32 @@
         <v>3.5040376850605655</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ref="G26:M26" si="26">G25/G27</f>
+        <f t="shared" ref="G26:M26" si="27">G25/G27</f>
         <v>2.2954703832752612</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.8292646621018163</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="26"/>
-        <v>4.8406015858430909</v>
+        <f t="shared" si="27"/>
+        <v>4.5189423071274337</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="26"/>
-        <v>5.1247503484629071</v>
+        <f t="shared" si="27"/>
+        <v>5.8568663364403895</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="26"/>
-        <v>6.9012841969493195</v>
+        <f t="shared" si="27"/>
+        <v>7.4851448475671676</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="26"/>
-        <v>9.1324446228981682</v>
+        <f t="shared" si="27"/>
+        <v>9.4601369356984915</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="26"/>
-        <v>11.922126562758221</v>
+        <f t="shared" si="27"/>
+        <v>11.848604371155647</v>
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.2">
@@ -1819,19 +1835,19 @@
         <v>1276.4199999999998</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" ref="J27:M27" si="27">I27*0.95</f>
+        <f t="shared" ref="J27:M27" si="28">I27*0.95</f>
         <v>1212.5989999999997</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1151.9690499999997</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1094.3705974999996</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1039.6520676249995</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -1846,7 +1862,7 @@
         <v>39</v>
       </c>
       <c r="P28" s="9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:109" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1863,24 +1879,24 @@
         <v>0.17147417295414979</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" ref="I29:M29" si="28">I13/H13-1</f>
-        <v>0.14215016473036224</v>
+        <f t="shared" ref="I29:M29" si="29">I13/H13-1</f>
+        <v>6.3083058782729573E-2</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="28"/>
-        <v>0.10513173356328909</v>
+        <f t="shared" si="29"/>
+        <v>6.3537385006850799E-2</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="28"/>
-        <v>0.10520077508981829</v>
+        <f t="shared" si="29"/>
+        <v>6.4001504523923947E-2</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="28"/>
-        <v>0.10527041622833022</v>
+        <f t="shared" si="29"/>
+        <v>6.4475219171055365E-2</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="28"/>
-        <v>0.10534065337229692</v>
+        <f t="shared" si="29"/>
+        <v>6.4958301331392798E-2</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>40</v>
@@ -1898,11 +1914,11 @@
         <v>0.13173253293313322</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" ref="G30:H30" si="29">G24/G23</f>
+        <f t="shared" ref="G30:H30" si="30">G24/G23</f>
         <v>0.1216</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.1866898514068922</v>
       </c>
       <c r="I30" s="8">
@@ -1925,7 +1941,7 @@
       </c>
       <c r="P30" s="4">
         <f>NPV(P29,I47:XFD47)+main!D5-main!D6</f>
-        <v>189094.46264313167</v>
+        <v>123557.29237736721</v>
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.2">
@@ -1942,31 +1958,31 @@
         <v>0.20255794718686326</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" ref="I31:M31" si="30">I11/H11-1</f>
-        <v>0.14999999999999991</v>
+        <f t="shared" ref="I31:M31" si="31">I11/H11-1</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="30"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="31"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="30"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="31"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="30"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="31"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="30"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="31"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P31" s="2">
         <f>P30/main!D3</f>
-        <v>141.54275086259148</v>
+        <v>92.486256909761948</v>
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.2">
@@ -1983,31 +1999,31 @@
         <v>9.1839371543749104E-2</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" ref="I32:M32" si="31">I12/H12-1</f>
-        <v>0.12000000000000011</v>
+        <f t="shared" ref="I32:M32" si="32">I12/H12-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="31"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="32"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="31"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="32"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="31"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="32"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="31"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="32"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P32" s="8">
         <f>P31/main!D2-1</f>
-        <v>4.8464821204381225E-2</v>
+        <v>-0.31491661548324479</v>
       </c>
     </row>
     <row r="34" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2016,36 +2032,36 @@
         <v>27</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" ref="F34:M34" si="32">F16/F13</f>
+        <f t="shared" ref="F34:M34" si="33">F16/F13</f>
         <v>0.20377493514625639</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.17540626813697041</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.19086427704426664</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="32"/>
-        <v>0.19384076242759851</v>
+        <f t="shared" si="33"/>
+        <v>0.19618712076727335</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="32"/>
-        <v>0.19830099632032439</v>
+        <f t="shared" si="33"/>
+        <v>0.20167963486538651</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="32"/>
-        <v>0.20286727147666034</v>
+        <f t="shared" si="33"/>
+        <v>0.20734645585568734</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="32"/>
-        <v>0.20754211711053011</v>
+        <f t="shared" si="33"/>
+        <v>0.21319222018091358</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="32"/>
-        <v>0.21232811968108545</v>
+        <f t="shared" si="33"/>
+        <v>0.21922155453697137</v>
       </c>
     </row>
     <row r="35" spans="1:115" x14ac:dyDescent="0.2">
@@ -2057,32 +2073,32 @@
         <v>8.0269553030980711E-2</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:M35" si="33">G20/G13</f>
+        <f t="shared" ref="G35:M35" si="34">G20/G13</f>
         <v>5.0420777713290774E-2</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.2612896034085559E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="33"/>
-        <v>8.6671895227519238E-2</v>
+        <f t="shared" si="34"/>
+        <v>8.9018253567194075E-2</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="33"/>
-        <v>9.2203817792245887E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.5582456337308025E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="33"/>
-        <v>9.7831064733862647E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.10231024911288966</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="33"/>
-        <v>0.1035562724351604</v>
+        <f t="shared" si="34"/>
+        <v>0.10920637550554385</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="33"/>
-        <v>0.10938213345246943</v>
+        <f t="shared" si="34"/>
+        <v>0.11627556830835536</v>
       </c>
     </row>
     <row r="36" spans="1:115" x14ac:dyDescent="0.2">
@@ -2106,19 +2122,19 @@
         <v>0.10716886720007927</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:M36" si="34">I36*0.99</f>
+        <f t="shared" ref="J36:M36" si="35">I36*0.99</f>
         <v>0.10609717852807848</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.10503620674279769</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.10398584467536971</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.10294598622861602</v>
       </c>
     </row>
@@ -2141,11 +2157,11 @@
         <v>0.17422645894471472</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:H38" si="35">(G11-G14)/G11</f>
+        <f t="shared" ref="G38:H38" si="36">(G11-G14)/G11</f>
         <v>0.1239837808396038</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.14835939072669932</v>
       </c>
       <c r="I38" s="8">
@@ -2153,19 +2169,19 @@
         <v>0.1513265785412333</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ref="J38:M38" si="36">I38*1.02</f>
+        <f t="shared" ref="J38:M38" si="37">I38*1.02</f>
         <v>0.15435311011205796</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.15744017231429913</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.16058897576058512</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.16380075527579682</v>
       </c>
     </row>
@@ -2178,11 +2194,11 @@
         <v>0.29581007300165635</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" ref="G39:H39" si="37">(G12-G15)/G12</f>
+        <f t="shared" ref="G39:H39" si="38">(G12-G15)/G12</f>
         <v>0.30714765620962325</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.3108018555334659</v>
       </c>
       <c r="I39" s="8">
@@ -2190,19 +2206,19 @@
         <v>0.31701789264413521</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ref="J39:M39" si="38">I39*1.02</f>
+        <f t="shared" ref="J39:M39" si="39">I39*1.02</f>
         <v>0.32335825049701794</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.32982541550695832</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.33642192381709751</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.34315036229343948</v>
       </c>
     </row>
@@ -2217,23 +2233,23 @@
       </c>
       <c r="I41" s="4">
         <f>H41+I25</f>
-        <v>-37560.359323798162</v>
+        <v>-37970.931660336399</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" ref="J41:M41" si="39">I41+J25</f>
-        <v>-31346.092176002392</v>
+        <f t="shared" ref="J41:M41" si="40">I41+J25</f>
+        <v>-30868.90139763512</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="39"/>
-        <v>-23396.026375862675</v>
+        <f t="shared" si="40"/>
+        <v>-22246.246198470777</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="39"/>
-        <v>-13401.747497265949</v>
+        <f t="shared" si="40"/>
+        <v>-11893.350487718604</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="39"/>
-        <v>-1006.8839658074357</v>
+        <f t="shared" si="40"/>
+        <v>425.07554522397004</v>
       </c>
     </row>
     <row r="42" spans="1:115" x14ac:dyDescent="0.2">
@@ -2272,24 +2288,24 @@
         <v>7159</v>
       </c>
       <c r="I45" s="2">
-        <f>I25*1.42</f>
-        <v>8773.6697602066088</v>
+        <f>I25*1.7</f>
+        <v>9805.7161774281158</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" ref="J45:M45" si="40">J25*1.42</f>
-        <v>8824.2593498699953</v>
+        <f>J25*1.5</f>
+        <v>10653.045394051916</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="40"/>
-        <v>11289.0934361984</v>
+        <f t="shared" ref="K45:M45" si="41">K25*1.5</f>
+        <v>12933.982798746514</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="40"/>
-        <v>14191.87600760735</v>
+        <f t="shared" si="41"/>
+        <v>15529.34356612826</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="40"/>
-        <v>17600.706214671089</v>
+        <f t="shared" si="41"/>
+        <v>18477.639049413861</v>
       </c>
     </row>
     <row r="46" spans="1:115" x14ac:dyDescent="0.2">
@@ -2306,24 +2322,24 @@
         <v>2625</v>
       </c>
       <c r="I46" s="2">
-        <f>I13*0.025</f>
-        <v>2305.3729999999996</v>
+        <f>I13*0.032</f>
+        <v>2746.5984000000003</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46:M46" si="41">J13*0.025</f>
-        <v>2547.7408599999999</v>
+        <f t="shared" ref="J46:M46" si="42">J13*0.032</f>
+        <v>2921.1100800000004</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="41"/>
-        <v>2815.7651732000004</v>
+        <f t="shared" si="42"/>
+        <v>3108.0655200000006</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="41"/>
-        <v>3112.1819449840004</v>
+        <f t="shared" si="42"/>
+        <v>3308.4587256000004</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="41"/>
-        <v>3440.0212244820814</v>
+        <f t="shared" si="42"/>
+        <v>3523.3705844400015</v>
       </c>
     </row>
     <row r="47" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2336,440 +2352,440 @@
         <v>4880</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H47" si="42">G45-G46</f>
+        <f t="shared" ref="G47:H47" si="43">G45-G46</f>
         <v>5468</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4534</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" ref="I47" si="43">I45-I46</f>
-        <v>6468.2967602066092</v>
+        <f t="shared" ref="I47:M47" si="44">I45-I46</f>
+        <v>7059.117777428115</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" ref="J47" si="44">J45-J46</f>
-        <v>6276.5184898699954</v>
+        <f t="shared" si="44"/>
+        <v>7731.9353140519161</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" ref="K47" si="45">K45-K46</f>
-        <v>8473.3282629983987</v>
+        <f t="shared" si="44"/>
+        <v>9825.9172787465141</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" ref="L47" si="46">L45-L46</f>
-        <v>11079.69406262335</v>
+        <f t="shared" si="44"/>
+        <v>12220.884840528259</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" ref="M47" si="47">M45-M46</f>
-        <v>14160.684990189007</v>
+        <f t="shared" si="44"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="N47" s="4">
         <f>M47*(1+$P$28)</f>
-        <v>14585.505539894677</v>
+        <v>14954.26846497386</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47:BZ47" si="48">N47*(1+$P$28)</f>
-        <v>15023.070706091517</v>
+        <f t="shared" ref="O47:BZ47" si="45">N47*(1+$P$28)</f>
+        <v>14954.26846497386</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="48"/>
-        <v>15473.762827274264</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="48"/>
-        <v>15937.975712092493</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="48"/>
-        <v>16416.114983455267</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="48"/>
-        <v>16908.598432958926</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="48"/>
-        <v>17415.856385947696</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="48"/>
-        <v>17938.332077526127</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="48"/>
-        <v>18476.482039851911</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="48"/>
-        <v>19030.776501047469</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="48"/>
-        <v>19601.699796078894</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="48"/>
-        <v>20189.750789961261</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="48"/>
-        <v>20795.4433136601</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AA47" s="4">
-        <f t="shared" si="48"/>
-        <v>21419.306613069904</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="48"/>
-        <v>22061.885811462002</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AC47" s="4">
-        <f t="shared" si="48"/>
-        <v>22723.742385805861</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="48"/>
-        <v>23405.454657380036</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" si="48"/>
-        <v>24107.618297101439</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AF47" s="4">
-        <f t="shared" si="48"/>
-        <v>24830.846846014483</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AG47" s="4">
-        <f t="shared" si="48"/>
-        <v>25575.772251394919</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AH47" s="4">
-        <f t="shared" si="48"/>
-        <v>26343.045418936767</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AI47" s="4">
-        <f t="shared" si="48"/>
-        <v>27133.33678150487</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AJ47" s="4">
-        <f t="shared" si="48"/>
-        <v>27947.336884950015</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AK47" s="4">
-        <f t="shared" si="48"/>
-        <v>28785.756991498514</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AL47" s="4">
-        <f t="shared" si="48"/>
-        <v>29649.32970124347</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AM47" s="4">
-        <f t="shared" si="48"/>
-        <v>30538.809592280777</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AN47" s="4">
-        <f t="shared" si="48"/>
-        <v>31454.973880049201</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AO47" s="4">
-        <f t="shared" si="48"/>
-        <v>32398.623096450679</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AP47" s="4">
-        <f t="shared" si="48"/>
-        <v>33370.5817893442</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AQ47" s="4">
-        <f t="shared" si="48"/>
-        <v>34371.69924302453</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AR47" s="4">
-        <f t="shared" si="48"/>
-        <v>35402.850220315268</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AS47" s="4">
-        <f t="shared" si="48"/>
-        <v>36464.935726924727</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AT47" s="4">
-        <f t="shared" si="48"/>
-        <v>37558.883798732466</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AU47" s="4">
-        <f t="shared" si="48"/>
-        <v>38685.650312694444</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AV47" s="4">
-        <f t="shared" si="48"/>
-        <v>39846.219822075276</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AW47" s="4">
-        <f t="shared" si="48"/>
-        <v>41041.606416737537</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AX47" s="4">
-        <f t="shared" si="48"/>
-        <v>42272.854609239665</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AY47" s="4">
-        <f t="shared" si="48"/>
-        <v>43541.040247516852</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="AZ47" s="4">
-        <f t="shared" si="48"/>
-        <v>44847.271454942362</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BA47" s="4">
-        <f t="shared" si="48"/>
-        <v>46192.68959859063</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BB47" s="4">
-        <f t="shared" si="48"/>
-        <v>47578.470286548349</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BC47" s="4">
-        <f t="shared" si="48"/>
-        <v>49005.824395144802</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="48"/>
-        <v>50475.999126999144</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BE47" s="4">
-        <f t="shared" si="48"/>
-        <v>51990.279100809123</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BF47" s="4">
-        <f t="shared" si="48"/>
-        <v>53549.987473833397</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BG47" s="4">
-        <f t="shared" si="48"/>
-        <v>55156.487098048397</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BH47" s="4">
-        <f t="shared" si="48"/>
-        <v>56811.181710989847</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BI47" s="4">
-        <f t="shared" si="48"/>
-        <v>58515.517162319542</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BJ47" s="4">
-        <f t="shared" si="48"/>
-        <v>60270.982677189131</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BK47" s="4">
-        <f t="shared" si="48"/>
-        <v>62079.112157504809</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BL47" s="4">
-        <f t="shared" si="48"/>
-        <v>63941.485522229952</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BM47" s="4">
-        <f t="shared" si="48"/>
-        <v>65859.730087896853</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BN47" s="4">
-        <f t="shared" si="48"/>
-        <v>67835.521990533758</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BO47" s="4">
-        <f t="shared" si="48"/>
-        <v>69870.58765024977</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BP47" s="4">
-        <f t="shared" si="48"/>
-        <v>71966.705279757269</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BQ47" s="4">
-        <f t="shared" si="48"/>
-        <v>74125.706438149995</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BR47" s="4">
-        <f t="shared" si="48"/>
-        <v>76349.477631294503</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BS47" s="4">
-        <f t="shared" si="48"/>
-        <v>78639.961960233341</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BT47" s="4">
-        <f t="shared" si="48"/>
-        <v>80999.160819040349</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BU47" s="4">
-        <f t="shared" si="48"/>
-        <v>83429.13564361156</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BV47" s="4">
-        <f t="shared" si="48"/>
-        <v>85932.009712919913</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BW47" s="4">
-        <f t="shared" si="48"/>
-        <v>88509.970004307514</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BX47" s="4">
-        <f t="shared" si="48"/>
-        <v>91165.269104436738</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BY47" s="4">
-        <f t="shared" si="48"/>
-        <v>93900.227177569846</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="BZ47" s="4">
-        <f t="shared" si="48"/>
-        <v>96717.233992896945</v>
+        <f t="shared" si="45"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CA47" s="4">
-        <f t="shared" ref="CA47:DK47" si="49">BZ47*(1+$P$28)</f>
-        <v>99618.751012683861</v>
+        <f t="shared" ref="CA47:DK47" si="46">BZ47*(1+$P$28)</f>
+        <v>14954.26846497386</v>
       </c>
       <c r="CB47" s="4">
-        <f t="shared" si="49"/>
-        <v>102607.31354306437</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CC47" s="4">
-        <f t="shared" si="49"/>
-        <v>105685.5329493563</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CD47" s="4">
-        <f t="shared" si="49"/>
-        <v>108856.098937837</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CE47" s="4">
-        <f t="shared" si="49"/>
-        <v>112121.78190597211</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CF47" s="4">
-        <f t="shared" si="49"/>
-        <v>115485.43536315128</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CG47" s="4">
-        <f t="shared" si="49"/>
-        <v>118949.99842404581</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CH47" s="4">
-        <f t="shared" si="49"/>
-        <v>122518.49837676719</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CI47" s="4">
-        <f t="shared" si="49"/>
-        <v>126194.05332807021</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CJ47" s="4">
-        <f t="shared" si="49"/>
-        <v>129979.87492791231</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CK47" s="4">
-        <f t="shared" si="49"/>
-        <v>133879.27117574969</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CL47" s="4">
-        <f t="shared" si="49"/>
-        <v>137895.64931102219</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CM47" s="4">
-        <f t="shared" si="49"/>
-        <v>142032.51879035286</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CN47" s="4">
-        <f t="shared" si="49"/>
-        <v>146293.49435406344</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CO47" s="4">
-        <f t="shared" si="49"/>
-        <v>150682.29918468534</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CP47" s="4">
-        <f t="shared" si="49"/>
-        <v>155202.76816022591</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CQ47" s="4">
-        <f t="shared" si="49"/>
-        <v>159858.8512050327</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CR47" s="4">
-        <f t="shared" si="49"/>
-        <v>164654.61674118368</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CS47" s="4">
-        <f t="shared" si="49"/>
-        <v>169594.2552434192</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CT47" s="4">
-        <f t="shared" si="49"/>
-        <v>174682.08290072178</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CU47" s="4">
-        <f t="shared" si="49"/>
-        <v>179922.54538774345</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CV47" s="4">
-        <f t="shared" si="49"/>
-        <v>185320.22174937575</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CW47" s="4">
-        <f t="shared" si="49"/>
-        <v>190879.82840185703</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CX47" s="4">
-        <f t="shared" si="49"/>
-        <v>196606.22325391273</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CY47" s="4">
-        <f t="shared" si="49"/>
-        <v>202504.40995153011</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="CZ47" s="4">
-        <f t="shared" si="49"/>
-        <v>208579.54225007602</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DA47" s="4">
-        <f t="shared" si="49"/>
-        <v>214836.92851757832</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DB47" s="4">
-        <f t="shared" si="49"/>
-        <v>221282.03637310566</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DC47" s="4">
-        <f t="shared" si="49"/>
-        <v>227920.49746429882</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DD47" s="4">
-        <f t="shared" si="49"/>
-        <v>234758.1123882278</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DE47" s="4">
-        <f t="shared" si="49"/>
-        <v>241800.85575987466</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DF47" s="4">
-        <f t="shared" si="49"/>
-        <v>249054.8814326709</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DG47" s="4">
-        <f t="shared" si="49"/>
-        <v>256526.52787565102</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DH47" s="4">
-        <f t="shared" si="49"/>
-        <v>264222.32371192059</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DI47" s="4">
-        <f t="shared" si="49"/>
-        <v>272148.99342327821</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DJ47" s="4">
-        <f t="shared" si="49"/>
-        <v>280313.46322597656</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
       <c r="DK47" s="4">
-        <f t="shared" si="49"/>
-        <v>288722.86712275585</v>
+        <f t="shared" si="46"/>
+        <v>14954.26846497386</v>
       </c>
     </row>
     <row r="48" spans="1:115" x14ac:dyDescent="0.2">
